--- a/excels/tbl_gula_detail.xlsx
+++ b/excels/tbl_gula_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1572">
   <si>
     <t>15755</t>
   </si>
@@ -4779,7 +4779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1968"/>
+  <dimension ref="A1:L1969"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -67860,6 +67860,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1969">
+      <c r="A1969">
+        <v>4961</v>
+      </c>
+      <c r="B1969">
+        <v>3067</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D1969">
+        <v>97.5</v>
+      </c>
+      <c r="E1969">
+        <v>50</v>
+      </c>
+      <c r="F1969">
+        <v>2607</v>
+      </c>
+      <c r="G1969">
+        <v>2509.5</v>
+      </c>
+      <c r="H1969" s="1">
+        <v>44123.38049768519</v>
+      </c>
+      <c r="I1969">
+        <v>5</v>
+      </c>
+      <c r="L1969">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/excels/tbl_gula_detail.xlsx
+++ b/excels/tbl_gula_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="1576">
   <si>
     <t>15755</t>
   </si>
@@ -4729,6 +4729,18 @@
   </si>
   <si>
     <t>10365</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>15705</t>
+  </si>
+  <si>
+    <t>14446</t>
+  </si>
+  <si>
+    <t>8225</t>
   </si>
 </sst>
 </file>
@@ -4779,7 +4791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1969"/>
+  <dimension ref="A1:L1975"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -67892,6 +67904,198 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970">
+        <v>4962</v>
+      </c>
+      <c r="B1970">
+        <v>3068</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D1970">
+        <v>105</v>
+      </c>
+      <c r="E1970">
+        <v>50</v>
+      </c>
+      <c r="F1970">
+        <v>2625.5</v>
+      </c>
+      <c r="G1970">
+        <v>2520.5</v>
+      </c>
+      <c r="H1970" s="1">
+        <v>44134.370208333341</v>
+      </c>
+      <c r="I1970">
+        <v>5</v>
+      </c>
+      <c r="L1970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971">
+        <v>4963</v>
+      </c>
+      <c r="B1971">
+        <v>3069</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1971">
+        <v>107.5</v>
+      </c>
+      <c r="E1971">
+        <v>50</v>
+      </c>
+      <c r="F1971">
+        <v>2600.5</v>
+      </c>
+      <c r="G1971">
+        <v>2493</v>
+      </c>
+      <c r="H1971" s="1">
+        <v>44134.383553240739</v>
+      </c>
+      <c r="I1971">
+        <v>5</v>
+      </c>
+      <c r="L1971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972">
+        <v>4964</v>
+      </c>
+      <c r="B1972">
+        <v>3070</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D1972">
+        <v>101</v>
+      </c>
+      <c r="E1972">
+        <v>50</v>
+      </c>
+      <c r="F1972">
+        <v>2614.5</v>
+      </c>
+      <c r="G1972">
+        <v>2513.5</v>
+      </c>
+      <c r="H1972" s="1">
+        <v>44134.403553240736</v>
+      </c>
+      <c r="I1972">
+        <v>5</v>
+      </c>
+      <c r="L1972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973">
+        <v>4965</v>
+      </c>
+      <c r="B1973">
+        <v>3071</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1973">
+        <v>100</v>
+      </c>
+      <c r="E1973">
+        <v>50</v>
+      </c>
+      <c r="F1973">
+        <v>2612</v>
+      </c>
+      <c r="G1973">
+        <v>2512</v>
+      </c>
+      <c r="H1973" s="1">
+        <v>44134.40865740741</v>
+      </c>
+      <c r="I1973">
+        <v>5</v>
+      </c>
+      <c r="L1973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974">
+        <v>4966</v>
+      </c>
+      <c r="B1974">
+        <v>3071</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1974">
+        <v>118</v>
+      </c>
+      <c r="E1974">
+        <v>50</v>
+      </c>
+      <c r="F1974">
+        <v>2629.5</v>
+      </c>
+      <c r="G1974">
+        <v>2511.5</v>
+      </c>
+      <c r="H1974" s="1">
+        <v>44134.414305555561</v>
+      </c>
+      <c r="I1974">
+        <v>5</v>
+      </c>
+      <c r="L1974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975">
+        <v>4967</v>
+      </c>
+      <c r="B1975">
+        <v>3072</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D1975">
+        <v>135.5</v>
+      </c>
+      <c r="E1975">
+        <v>50</v>
+      </c>
+      <c r="F1975">
+        <v>2648.5</v>
+      </c>
+      <c r="G1975">
+        <v>2513</v>
+      </c>
+      <c r="H1975" s="1">
+        <v>44134.43372685185</v>
+      </c>
+      <c r="I1975">
+        <v>5</v>
+      </c>
+      <c r="L1975">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>